--- a/オロチ仕様.xlsx
+++ b/オロチ仕様.xlsx
@@ -10,7 +10,6 @@
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6873,7 +6872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>

--- a/オロチ仕様.xlsx
+++ b/オロチ仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -41,16 +41,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>振り子</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,10 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２＋１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーがハサミを離すと自動でハンガー部分を回転させる</t>
     <rPh sb="10" eb="11">
       <t>ハナ</t>
@@ -209,142 +195,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２　＝　１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リング部分を左右に振る。９０度まで左右に振れる。振っている最中に離すとリングの回転を二回行う（洗濯ばさみを一個飛ばす）。移動自体の処理はリングの仕様と同じ</t>
-    <rPh sb="3" eb="5">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サユウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サイチュウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニカイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二連発射</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>レン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハサミを二つ発射する</t>
-    <rPh sb="4" eb="5">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハッシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェーンがなくなるとハサミは落ちる</t>
   </si>
   <si>
     <t>チェーンがなくなるとハサミは落ちる</t>
     <rPh sb="14" eb="15">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発射して伸ばした分だけ対になってるハサミのチェーンが減る</t>
-    <rPh sb="0" eb="2">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェーンがなくなったハサミは落ちる。</t>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二つはさんでいると滑りずらくなる</t>
-    <rPh sb="0" eb="1">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スベ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,27 +224,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>振り子一回に０．５秒、落下への時間が早まる</t>
+    <t>チェーン１つに付１とする</t>
+    <rPh sb="7" eb="8">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２－１＝１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リングの回転（空中）</t>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左にスティックを入れるとリングが４５度</t>
     <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハサミも一緒に移動</t>
+    <rPh sb="4" eb="6">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右にスティックを入れるとリングが４５度</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーンの移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦に振り子</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>フ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="4" eb="5">
       <t>コ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>イッカイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>となりのレーンの服と同じ位置にくっつく</t>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
     </rPh>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ラッカ</t>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジカン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ない場合は移動できない</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
     </rPh>
-    <rPh sb="18" eb="19">
-      <t>ハヤ</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +366,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -462,12 +409,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -487,421 +436,30 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1034142</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>642940</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>24162</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714499" y="21485679"/>
-          <a:ext cx="1905001" cy="2024412"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>980252</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>51225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18555</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>54752</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="図 161"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1672979" y="15031452"/>
-          <a:ext cx="2207531" cy="1821936"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>59552</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>18920</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1826559" cy="901430"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="図 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="20764642">
-          <a:off x="9992766" y="12945706"/>
-          <a:ext cx="1826559" cy="901430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>117303</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>303602</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5213173">
-          <a:off x="3059602" y="7801398"/>
-          <a:ext cx="1241343" cy="866656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>651400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>181363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33067</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>42780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5146347">
-          <a:off x="2452597" y="7905166"/>
-          <a:ext cx="677846" cy="742381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>403008</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>92545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>465032</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>226105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5146347">
-          <a:off x="2884562" y="7816348"/>
-          <a:ext cx="677846" cy="742381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>585355</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="184949">
-          <a:off x="6286500" y="4504768"/>
-          <a:ext cx="854296" cy="1130558"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>536793</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>492059</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>78065</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6408675" y="5051685"/>
-          <a:ext cx="638825" cy="745583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>532312</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>26969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>487578</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>257081</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6404194" y="5439410"/>
-          <a:ext cx="638825" cy="745583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>302561</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>547690</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="下矢印 65"/>
+        <xdr:cNvPr id="12" name="上矢印 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7704046" y="4936191"/>
-          <a:ext cx="571500" cy="896469"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
+        <a:xfrm>
+          <a:off x="18311815" y="25193625"/>
+          <a:ext cx="1285875" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -934,20 +492,108 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>138475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57020</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>31170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>604319</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152226</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>53278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPr id="243" name="図 242"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14773276" y="26272545"/>
+          <a:ext cx="8786812" cy="736483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>570199</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>126423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403383</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>7630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="246" name="図 245"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16167387" y="25891548"/>
+          <a:ext cx="2595434" cy="1786207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>345064</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>37232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102610</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>44298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="247" name="図 246"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -966,8 +612,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010357" y="5940108"/>
-          <a:ext cx="1832962" cy="872615"/>
+          <a:off x="15942252" y="26754857"/>
+          <a:ext cx="3210358" cy="2150191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,17 +622,154 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208767</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>196583</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1832962" cy="872615"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144331</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76616</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPr id="249" name="図 248"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17122644" y="28527375"/>
+          <a:ext cx="2722693" cy="2172116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>325583</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>48489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>70597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="239" name="図 238"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="325583" y="23646677"/>
+          <a:ext cx="6913418" cy="736483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619990</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>31174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54855</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>79068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="240" name="図 239"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1312717" y="23098992"/>
+          <a:ext cx="2604093" cy="1816514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>429492</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>177943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481446</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>185009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="241" name="図 240"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1005,8 +788,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8227085" y="6344538"/>
-          <a:ext cx="1832962" cy="872615"/>
+          <a:off x="1122219" y="23730670"/>
+          <a:ext cx="3221182" cy="2189157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,18 +797,18 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>644369</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>172644</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638825" cy="745583"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59552</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>18920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1826559" cy="901430"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPr id="105" name="図 104"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1043,9 +826,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8566928" y="5349762"/>
-          <a:ext cx="638825" cy="745583"/>
+        <a:xfrm rot="20764642">
+          <a:off x="9992766" y="12945706"/>
+          <a:ext cx="1826559" cy="901430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,26 +839,26 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117303</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>210922</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>303602</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73"/>
+        <xdr:cNvPr id="60" name="図 59"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1087,9 +870,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5895895" y="3195278"/>
-          <a:ext cx="1775332" cy="1550225"/>
+        <a:xfrm rot="5213173">
+          <a:off x="3059602" y="7801398"/>
+          <a:ext cx="1241343" cy="866656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,26 +883,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>264458</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118784</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>651400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>181363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>679076</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>56562</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33067</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPr id="58" name="図 57"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1131,9 +914,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8187017" y="3177990"/>
-          <a:ext cx="1781735" cy="1492594"/>
+        <a:xfrm rot="5146347">
+          <a:off x="2452597" y="7905166"/>
+          <a:ext cx="677846" cy="742381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,23 +925,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>662299</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>224191</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638825" cy="745583"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403008</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>465032</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>226105</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPr id="59" name="図 58"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1170,9 +958,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8584858" y="4930662"/>
-          <a:ext cx="638825" cy="745583"/>
+        <a:xfrm rot="5146347">
+          <a:off x="2884562" y="7816348"/>
+          <a:ext cx="677846" cy="742381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,29 +968,29 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447069</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>105796</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266467</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>201048</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585355</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="図 76"/>
+        <xdr:cNvPr id="61" name="図 60"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1214,9 +1002,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="505807">
-          <a:off x="8339212" y="4514510"/>
-          <a:ext cx="1180112" cy="908279"/>
+        <a:xfrm rot="184949">
+          <a:off x="6286500" y="4504768"/>
+          <a:ext cx="854296" cy="1130558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,26 +1015,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>562535</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>203950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536793</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>293593</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144529</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492059</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="図 77"/>
+        <xdr:cNvPr id="62" name="図 61"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1259,8 +1047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11219329" y="3027832"/>
-          <a:ext cx="1781735" cy="1492594"/>
+          <a:off x="6408675" y="5051685"/>
+          <a:ext cx="638825" cy="745583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,23 +1057,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>37942</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>86955</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1832962" cy="872615"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532312</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487578</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>257081</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="図 79"/>
+        <xdr:cNvPr id="63" name="図 62"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1298,8 +1091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11331871" y="5965241"/>
-          <a:ext cx="1832962" cy="872615"/>
+          <a:off x="6404194" y="5439410"/>
+          <a:ext cx="638825" cy="745583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,368 +1100,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>583857</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>145750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638825" cy="745583"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="図 80"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11924210" y="5322868"/>
-          <a:ext cx="638825" cy="745583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>568169</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219709</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638825" cy="745583"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="図 81"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11908522" y="4926180"/>
-          <a:ext cx="638825" cy="745583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>319323</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>77302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>138720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>172553</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="図 82"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="505807">
-          <a:off x="11659676" y="4077802"/>
-          <a:ext cx="1186515" cy="869858"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>530069</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125581</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638825" cy="745583"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="図 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11870422" y="4596728"/>
-          <a:ext cx="638825" cy="745583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>635376</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104885</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1832962" cy="872615"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="図 84"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="11248947" y="6473028"/>
-          <a:ext cx="1832962" cy="872615"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>629802</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>197297</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638825" cy="745583"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="図 85"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="10333063">
-          <a:off x="11923731" y="7055297"/>
-          <a:ext cx="638825" cy="745583"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>367668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>187065</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>199287</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="図 86"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="11170371">
-          <a:off x="11661597" y="7451893"/>
-          <a:ext cx="1180111" cy="908277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>659258</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>69070</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="図 88"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6510329" y="9376356"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>641170</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>235157</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="図 89"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6492241" y="9787371"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1684,13 +1116,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="下矢印 90"/>
+        <xdr:cNvPr id="66" name="下矢印 65"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="7660823" y="5153906"/>
-          <a:ext cx="600315" cy="893267"/>
+          <a:off x="7704046" y="4936191"/>
+          <a:ext cx="571500" cy="896469"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1723,17 +1155,144 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280730</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>12488</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1826559" cy="901430"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604319</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152226</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="図 91"/>
+        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010357" y="5940108"/>
+          <a:ext cx="1832962" cy="872615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208767</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>196583</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1832962" cy="872615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8227085" y="6344538"/>
+          <a:ext cx="1832962" cy="872615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>644369</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172644</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638825" cy="745583"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8566928" y="5349762"/>
+          <a:ext cx="638825" cy="745583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>210922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1752,8 +1311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2064503" y="12394988"/>
-          <a:ext cx="1826559" cy="901430"/>
+          <a:off x="5895895" y="3195278"/>
+          <a:ext cx="1775332" cy="1550225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,18 +1320,189 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>367137</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>137936</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="809738"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>264458</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>679076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56562</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="図 93"/>
+        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8187017" y="3177990"/>
+          <a:ext cx="1781735" cy="1492594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224191</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638825" cy="745583"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8584858" y="4930662"/>
+          <a:ext cx="638825" cy="745583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447069</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266467</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>201048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="505807">
+          <a:off x="8339212" y="4514510"/>
+          <a:ext cx="1180112" cy="908279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>562535</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>203950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293593</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11219329" y="3027832"/>
+          <a:ext cx="1781735" cy="1492594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37942</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>86955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1832962" cy="872615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1790,9 +1520,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="907437">
-          <a:off x="7578923" y="10180007"/>
-          <a:ext cx="635624" cy="809738"/>
+        <a:xfrm>
+          <a:off x="11331871" y="5965241"/>
+          <a:ext cx="1832962" cy="872615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1803,15 +1533,176 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457871</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>3758</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>583857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638825" cy="745583"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="図 94"/>
+        <xdr:cNvPr id="81" name="図 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11924210" y="5322868"/>
+          <a:ext cx="638825" cy="745583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>568169</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219709</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638825" cy="745583"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11908522" y="4926180"/>
+          <a:ext cx="638825" cy="745583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319323</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>138720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="505807">
+          <a:off x="11659676" y="4077802"/>
+          <a:ext cx="1186515" cy="869858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>530069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125581</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638825" cy="745583"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11823998" y="5160224"/>
+          <a:ext cx="638825" cy="745583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635376</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1832962" cy="872615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1829,9 +1720,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="573638">
-          <a:off x="7669657" y="9800901"/>
-          <a:ext cx="635624" cy="774398"/>
+        <a:xfrm rot="10800000">
+          <a:off x="11248947" y="6473028"/>
+          <a:ext cx="1832962" cy="872615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,196 +1733,20 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>319687</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88335</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>636718</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>91862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>125832</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>243204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2088616" y="9749406"/>
-          <a:ext cx="2170420" cy="1908527"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>318842</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>200886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>138239</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>34198</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="図 96"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7530628" y="9263243"/>
-          <a:ext cx="1180111" cy="908277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>553729</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>206843</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="図 97"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5044086" y="9522629"/>
-          <a:ext cx="2575914" cy="2250285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>403207</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>67535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>222604</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>169588</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="図 100"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6254278" y="8884964"/>
-          <a:ext cx="1180111" cy="908277"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123268</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361238</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>210477</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="図 101"/>
+        <xdr:cNvPr id="87" name="図 86"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2049,9 +1764,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="184949">
-          <a:off x="9443357" y="9185625"/>
-          <a:ext cx="851095" cy="1168978"/>
+        <a:xfrm rot="18096729">
+          <a:off x="10568077" y="5870994"/>
+          <a:ext cx="1204851" cy="874569"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,15 +1777,147 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297308</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>237803</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>659258</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>69070</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635624" cy="774398"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="図 102"/>
+        <xdr:cNvPr id="89" name="図 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6510329" y="9376356"/>
+          <a:ext cx="635624" cy="774398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641170</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>235157</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="635624" cy="774398"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492241" y="9787371"/>
+          <a:ext cx="635624" cy="774398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302561</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="下矢印 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7660823" y="5153906"/>
+          <a:ext cx="600315" cy="893267"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280730</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12488</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1826559" cy="901430"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2088,6 +1935,343 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2064503" y="12394988"/>
+          <a:ext cx="1826559" cy="901430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367137</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>137936</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="635624" cy="809738"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="907437">
+          <a:off x="7578923" y="10180007"/>
+          <a:ext cx="635624" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457871</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>3758</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="635624" cy="774398"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="573638">
+          <a:off x="7669657" y="9800901"/>
+          <a:ext cx="635624" cy="774398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319687</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2088616" y="9749406"/>
+          <a:ext cx="2170420" cy="1908527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>318842</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138239</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7530628" y="9263243"/>
+          <a:ext cx="1180111" cy="908277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>553729</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>206843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5044086" y="9522629"/>
+          <a:ext cx="2575914" cy="2250285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403207</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222604</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>169588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="図 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6254278" y="8884964"/>
+          <a:ext cx="1180111" cy="908277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361238</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>210477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="184949">
+          <a:off x="9443357" y="9185625"/>
+          <a:ext cx="851095" cy="1168978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297308</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>237803</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="635624" cy="774398"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm rot="573638">
           <a:off x="9550165" y="9790017"/>
           <a:ext cx="635624" cy="774398"/>
@@ -2115,7 +2299,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2212,7 +2396,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2251,7 +2435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2295,7 +2479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2339,7 +2523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2383,7 +2567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2422,7 +2606,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2461,7 +2645,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2500,7 +2684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2597,7 +2781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2641,7 +2825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2680,7 +2864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2719,7 +2903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2758,7 +2942,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2797,7 +2981,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2841,7 +3025,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2934,15 +3118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190747</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>36120</xdr:rowOff>
+      <xdr:colOff>104156</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>121227</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2951,7 +3135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4052702" y="9041575"/>
+          <a:off x="3966111" y="10132621"/>
           <a:ext cx="3394116" cy="812470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3496,7 +3680,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3530,6 +3714,45 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="145" name="図 144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8884962" y="11875704"/>
+          <a:ext cx="635624" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>48588</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144184</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="901430" cy="1826559"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="図 145"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3547,45 +3770,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8884962" y="11875704"/>
-          <a:ext cx="635624" cy="809738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>48588</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>144184</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="901430" cy="1826559"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="146" name="図 145"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm rot="15899740">
           <a:off x="8297068" y="12729476"/>
           <a:ext cx="1826559" cy="901430"/>
@@ -3608,84 +3792,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="147" name="図 146"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5145837">
-          <a:off x="8914884" y="12750318"/>
-          <a:ext cx="1826559" cy="950450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>337892</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>87946</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1204851" cy="884094"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="図 147"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9741665" y="11171582"/>
-          <a:ext cx="1204851" cy="884094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>579409</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>91671</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="809738"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="図 148"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3703,9 +3809,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9983182" y="11694853"/>
-          <a:ext cx="635624" cy="809738"/>
+        <a:xfrm rot="5145837">
+          <a:off x="8914884" y="12750318"/>
+          <a:ext cx="1826559" cy="950450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3717,20 +3823,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>595739</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>26355</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="809738"/>
+      <xdr:colOff>337892</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87946</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1204851" cy="884094"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="図 149"/>
+        <xdr:cNvPr id="148" name="図 147"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3742,9 +3848,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="21189457">
-          <a:off x="9999512" y="12149082"/>
-          <a:ext cx="635624" cy="809738"/>
+        <a:xfrm>
+          <a:off x="9741665" y="11171582"/>
+          <a:ext cx="1204851" cy="884094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3755,21 +3861,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380745</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>97113</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579409</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91671</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635624" cy="809738"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="図 150"/>
+        <xdr:cNvPr id="149" name="図 148"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3782,7 +3888,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8399063" y="12479613"/>
+          <a:off x="9983182" y="11694853"/>
           <a:ext cx="635624" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3794,21 +3900,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>315430</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>208692</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595739</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26355</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635624" cy="809738"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="図 151"/>
+        <xdr:cNvPr id="150" name="図 149"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3820,6 +3926,84 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm rot="21189457">
+          <a:off x="9999512" y="12149082"/>
+          <a:ext cx="635624" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>380745</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97113</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="635624" cy="809738"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="図 150"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8399063" y="12479613"/>
+          <a:ext cx="635624" cy="809738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>315430</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>208692</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="635624" cy="809738"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="図 151"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm rot="20508359">
           <a:off x="8333748" y="12071647"/>
           <a:ext cx="635624" cy="809738"/>
@@ -3847,7 +4031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4157,20 +4341,103 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>155863</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>242454</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>72858</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>667987</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>84734</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400527</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="161" name="図 160"/>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="14585928">
+          <a:off x="10373591" y="6563590"/>
+          <a:ext cx="1304657" cy="1713124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371079</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77495</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="745583" cy="638825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="図 137"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="17464678">
+          <a:off x="11213685" y="6172071"/>
+          <a:ext cx="638825" cy="745583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>484908</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548589</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4189,8 +4456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1939636" y="16521545"/>
-          <a:ext cx="1204851" cy="881371"/>
+          <a:off x="3654135" y="1246909"/>
+          <a:ext cx="2141863" cy="2424546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,305 +4466,558 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>396241</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>71872</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="163" name="図 162"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294408</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2180014" y="17130281"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>427414</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>172317</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="図 163"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+          <a:off x="4849090" y="1021772"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238991</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48492</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2211187" y="17490499"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>69448</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>147570</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1826559" cy="901430"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+          <a:off x="5486400" y="1537853"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581891</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>183571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391392</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>235526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1853221" y="17985297"/>
-          <a:ext cx="1826559" cy="901430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>597133</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>82263</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+          <a:off x="5829300" y="2175162"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335973</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145474</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3073633" y="17660218"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>610987</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>251982</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="図 166"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+          <a:off x="5583382" y="3002971"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>４</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>592283</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3087487" y="17310391"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>389658</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>207385</xdr:rowOff>
+          <a:off x="4644737" y="3553690"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="テキスト ボックス 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3584864" y="3151909"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>６</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65809</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>560396</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>121412</xdr:rowOff>
+      <xdr:colOff>568037</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="テキスト ボックス 158"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3235036" y="2299854"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>７</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>148936</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>651164</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="テキスト ボックス 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318163" y="1309254"/>
+          <a:ext cx="502228" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>８</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219544</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="図 167"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="184949">
-          <a:off x="2838944" y="22713599"/>
-          <a:ext cx="851095" cy="1138669"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162833</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>186306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292182</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>189833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="図 168"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6102969" y="14906761"/>
-          <a:ext cx="2207531" cy="1821936"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89002</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>59932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>277646</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>225692</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="176" name="図 175"/>
+        <xdr:cNvPr id="171" name="図 170"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4515,33 +5035,100 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="18889810">
-          <a:off x="6560126" y="16240990"/>
-          <a:ext cx="1204851" cy="881371"/>
+        <a:xfrm rot="19275246">
+          <a:off x="1939636" y="15153410"/>
+          <a:ext cx="2141863" cy="2424546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173183</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550224</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3342410" y="15188045"/>
+          <a:ext cx="377041" cy="478724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>172131</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>246967</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>377535</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>187036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>360774</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>152954</xdr:rowOff>
+      <xdr:colOff>441216</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="177" name="図 176"/>
+        <xdr:cNvPr id="174" name="図 173"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4559,9 +5146,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="3361391">
-          <a:off x="5950527" y="16428025"/>
-          <a:ext cx="1204851" cy="881371"/>
+        <a:xfrm rot="19363538">
+          <a:off x="4932217" y="15167263"/>
+          <a:ext cx="2141863" cy="2424546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4570,262 +5157,229 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>527745</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>117013</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="178" name="図 177"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="4713805">
-          <a:off x="5844541" y="16586490"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91327</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>113549</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="179" name="図 178"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5408123" y="16583026"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>216823</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>201088</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="901430" cy="1826559"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="図 179"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="6070297">
-          <a:off x="4308940" y="16423198"/>
-          <a:ext cx="1826559" cy="901430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>451545</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>231313</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="図 180"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7153796" y="16441017"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>153673</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>210531</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="図 181"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7548651" y="16420235"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>663633</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>93716</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="901430" cy="1826559"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="図 182"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7526659" y="16315826"/>
-          <a:ext cx="1826559" cy="901430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>364918</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>181839</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>442850</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>54426</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498268</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>196686</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="右カーブ矢印 183"/>
+        <xdr:cNvPr id="175" name="テキスト ボックス 174"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983182" y="15724909"/>
+          <a:ext cx="377041" cy="491095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48491</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>187035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425532</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="テキスト ボックス 187"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="14907490"/>
+          <a:ext cx="377041" cy="478724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238991</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>204355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>616032</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>175905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179127" y="14924810"/>
+          <a:ext cx="377041" cy="491095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>570518</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>207860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41448</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右カーブ矢印 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="7403522" y="16834508"/>
-          <a:ext cx="651905" cy="1463386"/>
+        <a:xfrm>
+          <a:off x="4432473" y="14408769"/>
+          <a:ext cx="1549111" cy="3567504"/>
         </a:xfrm>
         <a:prstGeom prst="curvedRightArrow">
           <a:avLst/>
@@ -4864,26 +5418,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>294412</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>126421</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>930737</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>153637</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>258780</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3348</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="右カーブ矢印 184"/>
+        <xdr:cNvPr id="223" name="右カーブ矢印 222"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5838208" y="16888443"/>
-          <a:ext cx="651905" cy="1244680"/>
+        <a:xfrm>
+          <a:off x="1623464" y="14543851"/>
+          <a:ext cx="1549111" cy="3567504"/>
         </a:xfrm>
         <a:prstGeom prst="curvedRightArrow">
           <a:avLst/>
@@ -4922,64 +5476,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>225135</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9659</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>893618</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>218209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>548491</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>173304</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558981</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="図 185"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11707090" y="14730114"/>
-          <a:ext cx="2401537" cy="1982054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>622402</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>39150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>118318</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>204910</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="187" name="図 186"/>
+        <xdr:cNvPr id="228" name="図 227"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4997,9 +5507,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="14188355">
-          <a:off x="11942617" y="16479981"/>
-          <a:ext cx="1204851" cy="881371"/>
+        <a:xfrm rot="19363538">
+          <a:off x="1586345" y="18835254"/>
+          <a:ext cx="2141863" cy="2424546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5008,144 +5518,85 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>413446</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>141258</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="189" name="図 188"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="14831814">
-          <a:off x="12657515" y="16350962"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>63620</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>241702</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="図 189"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="14831814">
-          <a:off x="13000416" y="16191633"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>435036</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>159525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1088968" cy="2206565"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="191" name="図 190"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="15801469">
-          <a:off x="12743646" y="15438779"/>
-          <a:ext cx="2206565" cy="1088968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>124733</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>200161</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398320</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>83171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>501774</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>159339</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>549737</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>135084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="テキスト ボックス 191"/>
+        <xdr:cNvPr id="229" name="右カーブ矢印 228"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2874820" y="18180671"/>
+          <a:ext cx="1536872" cy="3567504"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>287482</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>10391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>664523</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>4205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="テキスト ボックス 230"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7450324" y="16998797"/>
+          <a:off x="2763982" y="18627436"/>
           <a:ext cx="377041" cy="478724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5192,272 +5643,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>463075</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>18369</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>443346</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>651719</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>184129</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="194" name="図 193"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="15900462">
-          <a:off x="11783290" y="15160336"/>
-          <a:ext cx="1204851" cy="881371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>198701</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>47739</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="195" name="図 194"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="15468391">
-          <a:off x="13828224" y="15218352"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>628192</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9639</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="196" name="図 195"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="12872261" y="15180252"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>216134</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>238123</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="197" name="図 196"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="11895650">
-          <a:off x="13776270" y="16776987"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>56807</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>96114</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="198" name="図 197"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="11895650">
-          <a:off x="13616943" y="17154523"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>249381</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>68778</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>178252</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="199" name="図 198"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="13138159">
-          <a:off x="13116790" y="17394381"/>
-          <a:ext cx="1204851" cy="881371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>51997</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>127424</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>429038</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>86602</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127659</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>33896</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="テキスト ボックス 199"/>
+        <xdr:cNvPr id="232" name="テキスト ボックス 231"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12919406" y="16146742"/>
-          <a:ext cx="377041" cy="478724"/>
+          <a:off x="3612573" y="19146983"/>
+          <a:ext cx="377041" cy="491095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5505,25 +5712,127 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>65852</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>227870</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256311</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>200934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>442893</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>187048</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>407728</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>235529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="テキスト ボックス 200"/>
+        <xdr:cNvPr id="233" name="右カーブ矢印 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6196447" y="18038661"/>
+          <a:ext cx="1536872" cy="3567504"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159996</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>27042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>506360</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="234" name="図 233"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4856019" y="18745201"/>
+          <a:ext cx="2141863" cy="2424546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353292</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>232063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37606</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>208560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="テキスト ボックス 234"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13625988" y="17026506"/>
+          <a:off x="5600701" y="18589336"/>
           <a:ext cx="377041" cy="478724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5572,26 +5881,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152443</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>2733</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623456</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>24248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>529484</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>221684</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="テキスト ボックス 201"/>
+        <xdr:cNvPr id="236" name="テキスト ボックス 235"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13019852" y="14982960"/>
-          <a:ext cx="377041" cy="478724"/>
+          <a:off x="6563592" y="18641293"/>
+          <a:ext cx="311726" cy="547253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5630,24 +5939,117 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>３</a:t>
+            <a:t>２</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>140627</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>246118</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1088968" cy="2206565"/>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>173180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>195287</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="204" name="図 203"/>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277091" y="24961993"/>
+          <a:ext cx="7104784" cy="736482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577865</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>32742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1142999" y="24435955"/>
+          <a:ext cx="2604093" cy="1816514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>296575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>203054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348529</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>210120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="238" name="図 237"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5665,9 +6067,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9678328" y="15785144"/>
-          <a:ext cx="2206565" cy="1088968"/>
+        <a:xfrm>
+          <a:off x="987138" y="25468117"/>
+          <a:ext cx="3219016" cy="2150191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5675,24 +6077,83 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>91329</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>44275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632114</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7942552" y="23524586"/>
+          <a:ext cx="2296823" cy="1954789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>391391</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>68838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>83127</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114758</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="205" name="図 204"/>
+        <xdr:cNvPr id="242" name="図 241"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5704,9 +6165,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10949943" y="15214888"/>
-          <a:ext cx="635624" cy="774398"/>
+        <a:xfrm>
+          <a:off x="14607454" y="22357338"/>
+          <a:ext cx="8669048" cy="736483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5714,24 +6175,29 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>468865</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>58130</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27707</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>146772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551454</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>289916</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="206" name="図 205"/>
+        <xdr:cNvPr id="244" name="図 243"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5743,9 +6209,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11327479" y="15228743"/>
-          <a:ext cx="635624" cy="774398"/>
+        <a:xfrm>
+          <a:off x="15624895" y="21863772"/>
+          <a:ext cx="2595434" cy="1786207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5753,23 +6219,67 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>64758</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>35686</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>467159</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>33770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>253402</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>201446</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>226869</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="207" name="図 206"/>
+        <xdr:cNvPr id="245" name="図 244"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15373784" y="22679458"/>
+          <a:ext cx="3212523" cy="1680730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241350</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>48224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524176</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>15399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="237" name="図 236"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5787,9 +6297,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5747459">
-          <a:off x="11384973" y="15177653"/>
-          <a:ext cx="1204851" cy="881371"/>
+        <a:xfrm rot="484051">
+          <a:off x="2027288" y="27218287"/>
+          <a:ext cx="2354513" cy="2705612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5800,26 +6310,168 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>360261</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>2732</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>70478</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>229096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>221684</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>308602</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="テキスト ボックス 207"/>
+        <xdr:cNvPr id="250" name="上下矢印 249"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1245467">
+          <a:off x="19120478" y="29542284"/>
+          <a:ext cx="928687" cy="2790290"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>587245</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>274153</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="図 247"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15493870" y="28765499"/>
+          <a:ext cx="3830283" cy="4214813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>387774</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>128313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438718</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>93747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="251" name="図 250"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="182335">
+          <a:off x="13913274" y="23797938"/>
+          <a:ext cx="2122632" cy="1870434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="テキスト ボックス 251"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11842216" y="14723187"/>
-          <a:ext cx="377041" cy="478724"/>
+          <a:off x="13763626" y="22502813"/>
+          <a:ext cx="952499" cy="619124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5858,279 +6510,35 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>７</a:t>
+            <a:t>１レーン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>226410</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>110084</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="209" name="図 208"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="6670625">
-          <a:off x="11085024" y="16060015"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>551993</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>37348</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="210" name="図 209"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="7870355">
-          <a:off x="11410607" y="16247052"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303750</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>14903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>492394</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>180663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="211" name="図 210"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="6566481">
-          <a:off x="11623965" y="16455734"/>
-          <a:ext cx="1204851" cy="881371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>569309</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>158576</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="212" name="図 211"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="6670625">
-          <a:off x="10735196" y="16887825"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>271436</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>68521</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="774398" cy="635624"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="213" name="図 212"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="6670625">
-          <a:off x="11130050" y="17057543"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>432956</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>207819</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>252352</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>50099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="214" name="図 213"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="8111312">
-          <a:off x="11222183" y="17266228"/>
-          <a:ext cx="1204851" cy="881371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>135125</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>106642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>512166</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>65821</xdr:rowOff>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="215" name="テキスト ボックス 214"/>
+        <xdr:cNvPr id="253" name="テキスト ボックス 252"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10924352" y="17424824"/>
-          <a:ext cx="377041" cy="478724"/>
+          <a:off x="13939838" y="26560463"/>
+          <a:ext cx="952499" cy="619124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6169,35 +6577,123 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>１</a:t>
+            <a:t>２レーン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>150452</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>189415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84807</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="254" name="図 253"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11604265" y="7404603"/>
+          <a:ext cx="1315480" cy="1708794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>469540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403895</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="255" name="図 254"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="8628993">
+          <a:off x="12613915" y="7080753"/>
+          <a:ext cx="1315480" cy="1708794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10434</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>172451</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>387475</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>131629</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="テキスト ボックス 215"/>
+        <xdr:cNvPr id="258" name="テキスト ボックス 257"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11492389" y="15931996"/>
-          <a:ext cx="377041" cy="478724"/>
+          <a:off x="6343651" y="23679151"/>
+          <a:ext cx="952499" cy="619124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6236,372 +6732,78 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>８</a:t>
+            <a:t>１レーン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1087757</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>92151</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1826559" cy="901430"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="図 216"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233361</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="テキスト ボックス 258"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1780484" y="23575606"/>
-          <a:ext cx="1826559" cy="901430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>518211</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>226004</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="図 217"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2967497" y="24201790"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1386</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>75336</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="719974" cy="877164"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="図 218"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1785159" y="21134245"/>
-          <a:ext cx="719974" cy="877164"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>538251</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>6063</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="220" name="図 219"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3014751" y="20822518"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57671</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>175780</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="794037"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="図 220"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1841444" y="20749780"/>
-          <a:ext cx="635624" cy="794037"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>999755</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>150731</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>79447</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>62285</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="図 223"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="184949">
-          <a:off x="1680112" y="22656945"/>
-          <a:ext cx="848621" cy="1136196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31694</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>202994</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="794037"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="225" name="図 224"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800623" y="23199065"/>
-          <a:ext cx="635624" cy="794037"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>538250</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>85232</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635624" cy="774398"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="226" name="図 225"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2987536" y="23326232"/>
-          <a:ext cx="635624" cy="774398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>374815</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>2474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>206582</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>116896</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="図 226"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2824101" y="17555688"/>
-          <a:ext cx="1192481" cy="930851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+          <a:off x="6591300" y="24950738"/>
+          <a:ext cx="952499" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>２レーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6870,10 +7072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AG80"/>
+  <dimension ref="A4:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X91" sqref="X91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6895,7 +7097,7 @@
     </row>
     <row r="6" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6931,7 +7133,7 @@
     </row>
     <row r="7" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7362,7 +7564,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -7379,10 +7583,10 @@
     </row>
     <row r="20" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -7418,7 +7622,7 @@
     <row r="21" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -7454,7 +7658,7 @@
     <row r="22" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -7472,7 +7676,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -7492,7 +7696,7 @@
     <row r="23" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -7505,11 +7709,11 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -7530,7 +7734,7 @@
     <row r="24" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -7566,7 +7770,7 @@
     <row r="25" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -7602,7 +7806,7 @@
     <row r="26" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -7638,7 +7842,7 @@
     <row r="27" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -7657,7 +7861,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -7707,10 +7911,10 @@
     </row>
     <row r="29" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7829,9 +8033,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="S32" s="4"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -7849,10 +8051,10 @@
     </row>
     <row r="33" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -7888,7 +8090,7 @@
     <row r="34" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -8536,11 +8738,9 @@
     </row>
     <row r="57" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8570,9 +8770,8 @@
       <c r="AG57" s="3"/>
     </row>
     <row r="58" spans="1:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="C58" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -8612,7 +8811,9 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="Q59" s="3"/>
@@ -8643,7 +8844,9 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="Q60" s="3"/>
@@ -8979,7 +9182,9 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="Q71" s="3"/>
@@ -9010,7 +9215,9 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="L72" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -9034,30 +9241,46 @@
       <c r="AG72" s="3"/>
     </row>
     <row r="76" spans="2:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="B76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="2:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="C77" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="2:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:33" ht="21" x14ac:dyDescent="0.4">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:33" ht="21" x14ac:dyDescent="0.4">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="86" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="2:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="C79" s="3" t="s">
+    <row r="90" spans="1:24" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="X90" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="X91" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="27:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AA117" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="27:27" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="AA120" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="80" spans="2:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="C80" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/オロチ仕様.xlsx
+++ b/オロチ仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -323,12 +323,46 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プレイヤーの落下までの３段回</t>
+    <rPh sb="6" eb="8">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５秒</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８秒</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +416,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="HG明朝E"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -409,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -417,6 +459,7 @@
     <xf numFmtId="56" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6801,6 +6844,246 @@
             </a:rPr>
             <a:t>２レーン</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>37281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>1562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119062" y="34089156"/>
+          <a:ext cx="2833687" cy="4250531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右矢印 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="34456687"/>
+          <a:ext cx="2976562" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>168249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>192063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5119688" y="33672437"/>
+          <a:ext cx="3238500" cy="4857751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>227778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>215874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10596562" y="33731966"/>
+          <a:ext cx="3214688" cy="4822033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="右矢印 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7843837" y="34275712"/>
+          <a:ext cx="2976562" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7072,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AG120"/>
+  <dimension ref="A4:AG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X91" sqref="X91"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q153" sqref="Q153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9282,6 +9565,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="132" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B132" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/オロチ仕様.xlsx
+++ b/オロチ仕様.xlsx
@@ -7357,7 +7357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Q153" sqref="Q153"/>
     </sheetView>
   </sheetViews>
